--- a/output/fit_clients/fit_round_101.xlsx
+++ b/output/fit_clients/fit_round_101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2240624659.380334</v>
+        <v>2011404566.954634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1124704390817725</v>
+        <v>0.08537150385412137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0435053247623929</v>
+        <v>0.0429024629634365</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1120312357.649034</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2268232902.801283</v>
+        <v>1895749266.959719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1826838340904008</v>
+        <v>0.1482907834254177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0450820238952654</v>
+        <v>0.03903888830690071</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1134116532.92802</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3452417835.512599</v>
+        <v>4704819809.866744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.110302402831898</v>
+        <v>0.1568376946002822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02655371581415701</v>
+        <v>0.02854714343324051</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1726208893.07106</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3091922723.382522</v>
+        <v>4027797877.373259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09537069837331372</v>
+        <v>0.08659710035026827</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04376872314733012</v>
+        <v>0.04976547046960329</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1545961425.395003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1903365982.76731</v>
+        <v>2040939690.157346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.100320928618247</v>
+        <v>0.1361832277227842</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0343111859578851</v>
+        <v>0.04705458715467561</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>951683031.3640777</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2268540625.839529</v>
+        <v>2948979338.376899</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07482521325691908</v>
+        <v>0.06403500409506514</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03642788402134629</v>
+        <v>0.04467261471605913</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1134270348.161663</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2822852651.495325</v>
+        <v>2509202148.199033</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2147246046274054</v>
+        <v>0.2192268325196632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02868260840409671</v>
+        <v>0.03089278197615235</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1411426365.090471</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2159418254.717518</v>
+        <v>2035281185.152723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1266847370049695</v>
+        <v>0.1585734542367636</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03099087527000738</v>
+        <v>0.029615815794964</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1079709131.77635</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5807342538.42731</v>
+        <v>3634958045.124505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1697682990636141</v>
+        <v>0.1639245428243721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04731856403514723</v>
+        <v>0.0346640995414793</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>43</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2903671430.962554</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3481680316.807382</v>
+        <v>2710715355.56361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134073319629437</v>
+        <v>0.1688959621400936</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04015836317630361</v>
+        <v>0.03851636055130934</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>42</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1740840134.844421</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2951331304.360418</v>
+        <v>3095060932.029911</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1315993041049052</v>
+        <v>0.1968331507464405</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04864866548168677</v>
+        <v>0.05163210672503627</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1475665665.649098</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3721907547.341773</v>
+        <v>4911063524.984141</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06972867621616043</v>
+        <v>0.08060272880346206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02785021667981011</v>
+        <v>0.02690406024511705</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1860953842.665372</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2635602137.062059</v>
+        <v>2445910525.233897</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1369258382365113</v>
+        <v>0.1331126662676005</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02923261428765843</v>
+        <v>0.02683229109732308</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1317801129.297943</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1651752189.112393</v>
+        <v>1843028519.075682</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07663711314899592</v>
+        <v>0.09960143197559837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03291984934970882</v>
+        <v>0.03568220491246854</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>825876214.3905904</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2331216526.634497</v>
+        <v>1918738952.194597</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1079378004824453</v>
+        <v>0.07795959166344706</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05180798630423748</v>
+        <v>0.04226641076550559</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1165608309.142517</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3361950276.834711</v>
+        <v>4116211853.827752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1222851875290347</v>
+        <v>0.1151567234463612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03305148565363415</v>
+        <v>0.04393570873860207</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1680975204.510969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2746164729.02655</v>
+        <v>3056977828.928893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1269586927559454</v>
+        <v>0.1331177639350199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02460752881206565</v>
+        <v>0.02137825325633722</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1373082413.0784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1167376536.775312</v>
+        <v>1260480449.70854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1312595417828387</v>
+        <v>0.1260581524118636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02223612542130533</v>
+        <v>0.02190381045665974</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>583688338.287899</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2785570138.172065</v>
+        <v>2213979917.279914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1483136739951107</v>
+        <v>0.1158383907370362</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02136374452182514</v>
+        <v>0.02115806511057305</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1392785011.67575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2079195620.453468</v>
+        <v>2030718963.089831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07346988517607403</v>
+        <v>0.08417900395367697</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03060058356078337</v>
+        <v>0.04345584500976533</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1039597838.550595</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2473303640.756996</v>
+        <v>3079341661.44041</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1061991349450755</v>
+        <v>0.1366688032957221</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04103199188962559</v>
+        <v>0.05048536188144317</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1236651913.385183</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1473622963.265694</v>
+        <v>1102436069.870941</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1255311434964918</v>
+        <v>0.1380187346962803</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04485542859204818</v>
+        <v>0.04279172747981822</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>736811471.9495671</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3928477780.671454</v>
+        <v>2633660020.538583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1366126779795893</v>
+        <v>0.1456919020070025</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03504360221734904</v>
+        <v>0.0293441916666709</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1964238863.057173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282386405.281683</v>
+        <v>1334741126.93826</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08748179418248656</v>
+        <v>0.1218383099553755</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02879484398255495</v>
+        <v>0.0270770177938406</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>641193201.5904003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1387478229.700655</v>
+        <v>1260202264.580152</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09189612882268762</v>
+        <v>0.1171079610030398</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02929551221831704</v>
+        <v>0.02919348251595683</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>693739181.6916361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4691689705.127329</v>
+        <v>4319610822.805331</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1107568126609756</v>
+        <v>0.09497263523159254</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0266684775244529</v>
+        <v>0.01842929618743945</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>23</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2345844828.291818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3884849768.398069</v>
+        <v>2482679527.415609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.121836766825636</v>
+        <v>0.1164508189796829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03803971370166496</v>
+        <v>0.04971581753596312</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1942424972.188526</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5514666498.19379</v>
+        <v>5598016047.969523</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1051442238694266</v>
+        <v>0.1023149021152598</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03277281510670452</v>
+        <v>0.03426126763510053</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2757333160.957627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1952597779.776443</v>
+        <v>2142221337.740334</v>
       </c>
       <c r="F30" t="n">
-        <v>0.136819404284832</v>
+        <v>0.1158490571801642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02491343073827252</v>
+        <v>0.04029654011235699</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>976298921.8847954</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332412509.878495</v>
+        <v>923061013.5580927</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1059814152036695</v>
+        <v>0.07011562911539276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03343170388827188</v>
+        <v>0.0470990728614696</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666206175.1734115</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1698463635.207136</v>
+        <v>1622990961.425059</v>
       </c>
       <c r="F32" t="n">
-        <v>0.115356510235267</v>
+        <v>0.08191056389233509</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03383266041017114</v>
+        <v>0.02978234541850367</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>849231927.0037062</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1890519088.850396</v>
+        <v>3047090232.870578</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1562111608790683</v>
+        <v>0.1767043795452199</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05895896158830138</v>
+        <v>0.04397980738067275</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>945259634.4737544</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1537920428.898087</v>
+        <v>1469802150.376929</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08391012742185436</v>
+        <v>0.1043820817198003</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02343930421727822</v>
+        <v>0.02135977107774249</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>768960164.0065573</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137655225.828275</v>
+        <v>1268022961.108201</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1154213555664723</v>
+        <v>0.09704300844491967</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03418409254589912</v>
+        <v>0.04421161558328422</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>568827601.2397631</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2195522679.947583</v>
+        <v>2410715996.706543</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1720766128949084</v>
+        <v>0.1509932816368947</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02528479255553473</v>
+        <v>0.02412918257244813</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1097761386.283452</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2916678253.470962</v>
+        <v>1915782423.534368</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1006014808826444</v>
+        <v>0.09847099994153174</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03397481273636211</v>
+        <v>0.02952025369174022</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1458339280.051107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1822709637.33078</v>
+        <v>1572225643.602501</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07738622574751317</v>
+        <v>0.08963639110267833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02666795687295615</v>
+        <v>0.0246936595574275</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>911354822.2702417</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1762869949.32406</v>
+        <v>2160982108.290508</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1752323089418684</v>
+        <v>0.1844793467587311</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0205149374751032</v>
+        <v>0.02549945599780869</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>881435005.1327552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1484377186.586544</v>
+        <v>1739554461.080748</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1069338001992105</v>
+        <v>0.1287828920849793</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05238099499089664</v>
+        <v>0.04329564743414348</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>742188563.305112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2083944845.034949</v>
+        <v>2871191188.732925</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1581971742943768</v>
+        <v>0.1345679093704429</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03590420205975872</v>
+        <v>0.03128106359402593</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1041972488.42735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2655626951.046178</v>
+        <v>3067554303.729774</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09609428020562694</v>
+        <v>0.1162204709759715</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0465290681989834</v>
+        <v>0.03769760776112116</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1327813412.173595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1885077981.128387</v>
+        <v>2078688475.318067</v>
       </c>
       <c r="F43" t="n">
-        <v>0.185459680242803</v>
+        <v>0.1367574276426724</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01998040144878469</v>
+        <v>0.01816894101932169</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>942539101.005644</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1988816984.569737</v>
+        <v>2184011268.170282</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0857202575510896</v>
+        <v>0.09298891089878247</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02262781920639485</v>
+        <v>0.03702811919384915</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>994408596.3262269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1944169240.320938</v>
+        <v>1610746924.856156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1628071517110139</v>
+        <v>0.1249552233249497</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05286539349859194</v>
+        <v>0.03662009168340302</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>972084605.3249097</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4533918364.714004</v>
+        <v>3839517289.748652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1237472207069491</v>
+        <v>0.1719923115350308</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05520086439604573</v>
+        <v>0.0404216572077664</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>36</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2266959182.391282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4202893757.324714</v>
+        <v>4235904960.806674</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1332880523277358</v>
+        <v>0.1807107586457009</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04533401867606109</v>
+        <v>0.04255516644692408</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2101446889.217605</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4424703231.508443</v>
+        <v>3882182527.582724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06936249387963052</v>
+        <v>0.09768059193236742</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03810802254675764</v>
+        <v>0.03011471185638455</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>36</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2212351625.369009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1589834883.47694</v>
+        <v>1511091260.496338</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1324825325723913</v>
+        <v>0.1310268292931543</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02702126449699074</v>
+        <v>0.03865059752401563</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>794917459.736774</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3713241246.132839</v>
+        <v>3752909097.215116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1351158848376799</v>
+        <v>0.1474001755765298</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03959288850624276</v>
+        <v>0.0483813981179893</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>35</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1856620632.077176</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1274295996.21032</v>
+        <v>1329593078.475814</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1343183099518873</v>
+        <v>0.1572992121030157</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04119046889029365</v>
+        <v>0.04060367073444344</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>637148037.5494257</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3368693861.057289</v>
+        <v>3198155545.097294</v>
       </c>
       <c r="F52" t="n">
-        <v>0.113396017831294</v>
+        <v>0.1067473233441064</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05848394349274967</v>
+        <v>0.05002325784867691</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>42</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1684347024.098993</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3764891738.691433</v>
+        <v>3008181452.890713</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1776066063778143</v>
+        <v>0.1657997029209187</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0248593157208236</v>
+        <v>0.02418048203209614</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>29</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1882445848.864591</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3427139529.198226</v>
+        <v>3842131094.264458</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1646092059792078</v>
+        <v>0.1665027745398632</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04511936101304479</v>
+        <v>0.05303554034989721</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1713569783.641483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3885260653.56034</v>
+        <v>4409379650.891778</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1566881653552606</v>
+        <v>0.1565796400199593</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03067607943838347</v>
+        <v>0.03127770054391739</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1942630296.557953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1155856883.960111</v>
+        <v>1384100070.258102</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1531430214397567</v>
+        <v>0.1440131094831922</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04213401147455147</v>
+        <v>0.05815619227733748</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>577928535.1275427</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3354497504.141047</v>
+        <v>3756947568.793836</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1294467344284468</v>
+        <v>0.1441559325218974</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02084857572255304</v>
+        <v>0.019585902491469</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>32</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1677248786.180773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1511041225.646443</v>
+        <v>1333277693.696443</v>
       </c>
       <c r="F58" t="n">
-        <v>0.127901457782586</v>
+        <v>0.1835918866858291</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03211624729758512</v>
+        <v>0.03079246200292901</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>755520642.8947732</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4589979283.365987</v>
+        <v>5188762082.593267</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08729083734204757</v>
+        <v>0.1089567637719214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04952542995908003</v>
+        <v>0.04740375707361271</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2294989589.087293</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3330584190.055962</v>
+        <v>2329818729.822515</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1898157797303828</v>
+        <v>0.2028971424990287</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02467869870137925</v>
+        <v>0.03253196340158897</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1665292199.974576</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2964465359.795544</v>
+        <v>2253541322.643595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1422464054236387</v>
+        <v>0.1722777404635995</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02577033860203918</v>
+        <v>0.02517824775794116</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>35</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1482232663.653645</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2096597058.877578</v>
+        <v>1790604313.467448</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1310900367437667</v>
+        <v>0.1363085535085737</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0366055990339515</v>
+        <v>0.03350975290172771</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1048298601.902764</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3461463251.111015</v>
+        <v>3603671695.406344</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07415010801712341</v>
+        <v>0.08036154467256905</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03273784075149399</v>
+        <v>0.0462929584701598</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>29</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1730731711.888266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4272574475.420732</v>
+        <v>3930649561.070674</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1280610538972802</v>
+        <v>0.1537439802461538</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03353819148833986</v>
+        <v>0.02394433218107667</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2136287292.681473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4963949792.402685</v>
+        <v>4143552791.016601</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1477299711300962</v>
+        <v>0.1126824598932827</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02648389539292974</v>
+        <v>0.02268235743766196</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>36</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2481974857.180867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4844005344.19958</v>
+        <v>5340993777.261375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1187574571920694</v>
+        <v>0.1110642502244783</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03170208853657325</v>
+        <v>0.04295585704896013</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>30</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2422002690.823509</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3160886310.360178</v>
+        <v>3397894401.182523</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09750203969241883</v>
+        <v>0.09016465329342103</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03579775819166042</v>
+        <v>0.03770287196796972</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>32</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1580443159.733077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5651480991.821012</v>
+        <v>5195597464.32802</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1274699841542286</v>
+        <v>0.1550947705300552</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05006223985321253</v>
+        <v>0.05063667966241828</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>32</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2825740591.709011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1906876243.426159</v>
+        <v>1952720981.4989</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1294364377960671</v>
+        <v>0.1115259331091059</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0392291971294734</v>
+        <v>0.04652846088845006</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>953438114.5850142</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2471917285.66983</v>
+        <v>3468075460.485355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07344197057544485</v>
+        <v>0.08237854925772989</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0349163145907611</v>
+        <v>0.04649202622638771</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1235958585.407881</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3894179639.100205</v>
+        <v>4900682546.710003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1626113542546219</v>
+        <v>0.1422940660980387</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0338956031537473</v>
+        <v>0.02983914409651172</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>37</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1947089842.653317</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1613563263.141927</v>
+        <v>1995637858.202931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06990232664301993</v>
+        <v>0.06936159525288291</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04460030474109649</v>
+        <v>0.05243133924263001</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>806781640.1517261</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3418498528.980855</v>
+        <v>3111403206.008027</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08390314430799825</v>
+        <v>0.1041354717637425</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04082040012433433</v>
+        <v>0.04322000463370278</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1709249222.08141</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3249176494.383637</v>
+        <v>3420191017.984955</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1536274261008788</v>
+        <v>0.1657409871345318</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02317231483948255</v>
+        <v>0.02429119358270162</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>35</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1624588290.979151</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1982913506.344615</v>
+        <v>1513845509.235394</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1568856228478377</v>
+        <v>0.1496519010078619</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02823361861563539</v>
+        <v>0.03491322971009283</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>991456718.8657572</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4668586716.612902</v>
+        <v>3892517774.209333</v>
       </c>
       <c r="F76" t="n">
-        <v>0.125011479034232</v>
+        <v>0.08203889560047567</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03208137754215679</v>
+        <v>0.03241333659094527</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>22</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2334293370.997069</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1844923377.846825</v>
+        <v>1917785288.232755</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1796414717943226</v>
+        <v>0.1311099292279525</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02221031672189488</v>
+        <v>0.03086569207440591</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>922461727.5041037</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3738489782.694695</v>
+        <v>3754199378.954039</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09133683248443544</v>
+        <v>0.109970288902634</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05551853029217602</v>
+        <v>0.04542835072860862</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1869244875.726475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1638425403.899313</v>
+        <v>1494436315.274346</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1578013434452116</v>
+        <v>0.1195227482658832</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0333436552542655</v>
+        <v>0.02509993267356117</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>819212760.3184848</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3514513155.679523</v>
+        <v>5212632258.116467</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09395581883153759</v>
+        <v>0.0757400028940285</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03790643532672723</v>
+        <v>0.0287111461206013</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1757256553.111656</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5120140722.101971</v>
+        <v>4934522792.885039</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045725398172212</v>
+        <v>0.09601221505985207</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02077596246947012</v>
+        <v>0.02352367744234903</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2560070365.768579</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5633634969.863998</v>
+        <v>4434810558.270999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1605670764668149</v>
+        <v>0.1662865348385478</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02391759227621528</v>
+        <v>0.0213871193641315</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2816817433.441548</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1996939948.099952</v>
+        <v>2282557487.166252</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09759292512577424</v>
+        <v>0.1275988790715299</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02834750012577079</v>
+        <v>0.040042895245082</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>998469958.9146254</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2507559208.582462</v>
+        <v>1878248301.216877</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08028793820403993</v>
+        <v>0.08545866173658863</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03196433716338896</v>
+        <v>0.03248264033119282</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1253779534.886065</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3253791471.722104</v>
+        <v>2674220214.281065</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1576190818085881</v>
+        <v>0.154553375777349</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04765849269737293</v>
+        <v>0.04047565348656491</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1626895823.959398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2703672828.960284</v>
+        <v>2057454070.349906</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1212716892836339</v>
+        <v>0.1100590239433463</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02102310764423251</v>
+        <v>0.01806570486871339</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1351836539.864107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1112900322.547868</v>
+        <v>1129107167.135213</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1180770144003626</v>
+        <v>0.1185605766041306</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03737787190001107</v>
+        <v>0.03576532734147345</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>556450194.472962</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3152314807.501731</v>
+        <v>3525800481.613909</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1447561339378494</v>
+        <v>0.1162528639153348</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02990547562446538</v>
+        <v>0.03077510723326255</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>40</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1576157449.178017</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3172862349.035233</v>
+        <v>2687135586.770473</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1443397053273931</v>
+        <v>0.1201987014244877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02885557028626926</v>
+        <v>0.03137377549252665</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1586431199.887843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1474912584.567504</v>
+        <v>1891392189.732359</v>
       </c>
       <c r="F90" t="n">
-        <v>0.104152016211275</v>
+        <v>0.1346010829731631</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03649251150181648</v>
+        <v>0.04859957115161733</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>737456266.346004</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1824272969.331296</v>
+        <v>2016716551.046065</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1694315953609213</v>
+        <v>0.1802809547297679</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06198847540835407</v>
+        <v>0.05300837162824568</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>912136480.2873453</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2114129122.038408</v>
+        <v>2686059935.738035</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0991964211107963</v>
+        <v>0.08030326685593892</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04728671981949294</v>
+        <v>0.04369256429882082</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>21</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1057064515.750486</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3819242615.703918</v>
+        <v>4221478486.535797</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238638325970702</v>
+        <v>0.1191390757064083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03868988949603322</v>
+        <v>0.03441324541369952</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>30</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1909621320.108929</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609217495.486142</v>
+        <v>2144472320.38177</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1178696958446191</v>
+        <v>0.12652398464679</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0263059752335979</v>
+        <v>0.0350571165625839</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>804608695.1676557</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2344177425.334742</v>
+        <v>2649340339.705388</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09337372938006766</v>
+        <v>0.1310954948727819</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04366436132461073</v>
+        <v>0.03275723070982611</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1172088760.011785</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2288683097.858289</v>
+        <v>1721771956.263684</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1059206745200292</v>
+        <v>0.09567305490839974</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0369276941486691</v>
+        <v>0.04733290915539568</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1144341505.007162</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4186495594.301501</v>
+        <v>5224327293.111506</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1162558216572793</v>
+        <v>0.1067689139439088</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02229149097586113</v>
+        <v>0.02504181953753886</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>33</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2093247868.451155</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2640860486.786117</v>
+        <v>3008354892.373036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1090824324059552</v>
+        <v>0.0903656444953312</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0261783240167699</v>
+        <v>0.02681254563601189</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1320430203.679675</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2843520919.716382</v>
+        <v>3121619703.318027</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09310456333728719</v>
+        <v>0.1330742442458518</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02197372992061548</v>
+        <v>0.02273037317873677</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1421760434.41002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3182929278.813772</v>
+        <v>2921483124.935688</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1459188965394639</v>
+        <v>0.1411542078096649</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01728973011714146</v>
+        <v>0.02775290720141076</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>31</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1591464644.789386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3300258957.935057</v>
+        <v>2517562127.967049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1421726712235361</v>
+        <v>0.1880100200999542</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03978346901865309</v>
+        <v>0.04469102921727707</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>43</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1650129607.670023</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_101.xlsx
+++ b/output/fit_clients/fit_round_101.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2011404566.954634</v>
+        <v>1604962429.549688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08537150385412137</v>
+        <v>0.07550642965941166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0429024629634365</v>
+        <v>0.02926571032082486</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1895749266.959719</v>
+        <v>2204062346.808362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1482907834254177</v>
+        <v>0.1341171882831237</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03903888830690071</v>
+        <v>0.05048018577064982</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4704819809.866744</v>
+        <v>4767067012.462132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1568376946002822</v>
+        <v>0.1011105347063948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02854714343324051</v>
+        <v>0.0250167744757063</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4027797877.373259</v>
+        <v>4061443146.390791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08659710035026827</v>
+        <v>0.07358322947486833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04976547046960329</v>
+        <v>0.04138856304486356</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2040939690.157346</v>
+        <v>2476626977.10848</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1361832277227842</v>
+        <v>0.1139936398980255</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04705458715467561</v>
+        <v>0.04252336326963106</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2948979338.376899</v>
+        <v>1938205211.519069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06403500409506514</v>
+        <v>0.09844447198118769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04467261471605913</v>
+        <v>0.03115501019272223</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2509202148.199033</v>
+        <v>3392704426.875235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2192268325196632</v>
+        <v>0.1895549397410446</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03089278197615235</v>
+        <v>0.03323890261137848</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2035281185.152723</v>
+        <v>1540088928.584842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1585734542367636</v>
+        <v>0.1636393829226503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.029615815794964</v>
+        <v>0.02586410847287933</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3634958045.124505</v>
+        <v>4414866457.820507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1639245428243721</v>
+        <v>0.1486877205661521</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0346640995414793</v>
+        <v>0.05286882710864866</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2710715355.56361</v>
+        <v>2816016671.050651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1688959621400936</v>
+        <v>0.1669213489229715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03851636055130934</v>
+        <v>0.03027662263609897</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3095060932.029911</v>
+        <v>2634331099.143675</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1968331507464405</v>
+        <v>0.1954798351116976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05163210672503627</v>
+        <v>0.05079787476610609</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4911063524.984141</v>
+        <v>4929046972.678635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08060272880346206</v>
+        <v>0.07650770023207777</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02690406024511705</v>
+        <v>0.0200276804453179</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2445910525.233897</v>
+        <v>2583623350.664747</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1331126662676005</v>
+        <v>0.1495906889669938</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02683229109732308</v>
+        <v>0.04014507031599779</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1843028519.075682</v>
+        <v>1357049518.190698</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09960143197559837</v>
+        <v>0.07201508422124592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03568220491246854</v>
+        <v>0.04816816609632356</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1918738952.194597</v>
+        <v>1789283398.155699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07795959166344706</v>
+        <v>0.0715451761912818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04226641076550559</v>
+        <v>0.04875077638322682</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4116211853.827752</v>
+        <v>4351193164.31081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1151567234463612</v>
+        <v>0.1442931865171542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04393570873860207</v>
+        <v>0.04782406165918145</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3056977828.928893</v>
+        <v>2863589828.829581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1331177639350199</v>
+        <v>0.1683175887240691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02137825325633722</v>
+        <v>0.02975926875371879</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1260480449.70854</v>
+        <v>888281061.4506578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1260581524118636</v>
+        <v>0.1519067445790395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02190381045665974</v>
+        <v>0.01972216233779888</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2213979917.279914</v>
+        <v>2811855456.768292</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1158383907370362</v>
+        <v>0.1456947853004504</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02115806511057305</v>
+        <v>0.02425271987258205</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2030718963.089831</v>
+        <v>2213892375.405333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08417900395367697</v>
+        <v>0.0814080384927125</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04345584500976533</v>
+        <v>0.032316613925945</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3079341661.44041</v>
+        <v>3205071585.812903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1366688032957221</v>
+        <v>0.102153655833211</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05048536188144317</v>
+        <v>0.0457112183268858</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1102436069.870941</v>
+        <v>997405441.4928705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1380187346962803</v>
+        <v>0.1639276958127812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04279172747981822</v>
+        <v>0.03466943744266472</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2633660020.538583</v>
+        <v>3539321868.006508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1456919020070025</v>
+        <v>0.1041714936412686</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0293441916666709</v>
+        <v>0.03027155215563041</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1334741126.93826</v>
+        <v>1472184216.35984</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1218383099553755</v>
+        <v>0.111617263096685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0270770177938406</v>
+        <v>0.02330716818886356</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1260202264.580152</v>
+        <v>1399478851.109034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1171079610030398</v>
+        <v>0.09328016719672552</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02919348251595683</v>
+        <v>0.03719432101520081</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4319610822.805331</v>
+        <v>3551903828.169898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09497263523159254</v>
+        <v>0.1575416653935763</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01842929618743945</v>
+        <v>0.01907772204419274</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2482679527.415609</v>
+        <v>2941298110.832587</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1164508189796829</v>
+        <v>0.1477106910911032</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04971581753596312</v>
+        <v>0.03907435779741841</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5598016047.969523</v>
+        <v>5277393398.082431</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1023149021152598</v>
+        <v>0.1152076339234526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03426126763510053</v>
+        <v>0.03105485049467881</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2142221337.740334</v>
+        <v>1987361829.178694</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1158490571801642</v>
+        <v>0.108441138773662</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04029654011235699</v>
+        <v>0.03355227659012802</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923061013.5580927</v>
+        <v>1180437949.955043</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07011562911539276</v>
+        <v>0.07747012453617459</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0470990728614696</v>
+        <v>0.04914954553443165</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1622990961.425059</v>
+        <v>1446789875.839365</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08191056389233509</v>
+        <v>0.1003150840149042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02978234541850367</v>
+        <v>0.0314891560943802</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3047090232.870578</v>
+        <v>2354721360.437604</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1767043795452199</v>
+        <v>0.1888022013646554</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04397980738067275</v>
+        <v>0.05574303980742241</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469802150.376929</v>
+        <v>1575048191.799239</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1043820817198003</v>
+        <v>0.07387806670097043</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02135977107774249</v>
+        <v>0.02794194173954844</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268022961.108201</v>
+        <v>1255249466.962841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09704300844491967</v>
+        <v>0.09566364139831661</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04421161558328422</v>
+        <v>0.03434365095231121</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2410715996.706543</v>
+        <v>3043479957.905481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1509932816368947</v>
+        <v>0.1804141486319631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02412918257244813</v>
+        <v>0.02558524150374256</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1915782423.534368</v>
+        <v>2380603786.68714</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09847099994153174</v>
+        <v>0.07607681974231652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02952025369174022</v>
+        <v>0.03546434446478626</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1572225643.602501</v>
+        <v>1482420946.224427</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08963639110267833</v>
+        <v>0.0957301550042962</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0246936595574275</v>
+        <v>0.03176394242202659</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2160982108.290508</v>
+        <v>1825863098.727774</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1844793467587311</v>
+        <v>0.1472850117807208</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02549945599780869</v>
+        <v>0.02228486585960434</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1739554461.080748</v>
+        <v>1783868046.899906</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1287828920849793</v>
+        <v>0.1269380897804508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04329564743414348</v>
+        <v>0.05158950588017044</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2871191188.732925</v>
+        <v>2907876686.851078</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1345679093704429</v>
+        <v>0.1511105798188195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03128106359402593</v>
+        <v>0.04328845765995901</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3067554303.729774</v>
+        <v>3543199309.531487</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1162204709759715</v>
+        <v>0.1054502332573215</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03769760776112116</v>
+        <v>0.03748269074835067</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2078688475.318067</v>
+        <v>3022460920.718365</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1367574276426724</v>
+        <v>0.1872895740575772</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01816894101932169</v>
+        <v>0.02104312836333427</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2184011268.170282</v>
+        <v>1967423045.901836</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09298891089878247</v>
+        <v>0.09807512639850756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03702811919384915</v>
+        <v>0.02432679827698601</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1610746924.856156</v>
+        <v>2543635168.337374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1249552233249497</v>
+        <v>0.1570821768455115</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03662009168340302</v>
+        <v>0.03948297189845684</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3839517289.748652</v>
+        <v>5703516899.617663</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1719923115350308</v>
+        <v>0.1699363631569276</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0404216572077664</v>
+        <v>0.04375851094790856</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4235904960.806674</v>
+        <v>4851456838.907808</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1807107586457009</v>
+        <v>0.1674386357774536</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04255516644692408</v>
+        <v>0.05698663596799629</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3882182527.582724</v>
+        <v>3690502152.71432</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09768059193236742</v>
+        <v>0.07123284761818628</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03011471185638455</v>
+        <v>0.0298584449486861</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1511091260.496338</v>
+        <v>1318658988.890757</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1310268292931543</v>
+        <v>0.1782984900357568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03865059752401563</v>
+        <v>0.02733819003505615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3752909097.215116</v>
+        <v>3502627537.273071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1474001755765298</v>
+        <v>0.1276127757698039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0483813981179893</v>
+        <v>0.04649372819915576</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329593078.475814</v>
+        <v>1073034273.783632</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1572992121030157</v>
+        <v>0.1759019599961524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04060367073444344</v>
+        <v>0.03386304138962822</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3198155545.097294</v>
+        <v>3449430084.016791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067473233441064</v>
+        <v>0.1067607016128447</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05002325784867691</v>
+        <v>0.05055416393378331</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3008181452.890713</v>
+        <v>3381471302.475369</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1657997029209187</v>
+        <v>0.1346002885958305</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02418048203209614</v>
+        <v>0.03040926015266902</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3842131094.264458</v>
+        <v>3505109174.753421</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1665027745398632</v>
+        <v>0.1275759183084682</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05303554034989721</v>
+        <v>0.03266494858618443</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4409379650.891778</v>
+        <v>3284312408.569174</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1565796400199593</v>
+        <v>0.1372847454730073</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03127770054391739</v>
+        <v>0.01973887468428806</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1384100070.258102</v>
+        <v>1637590629.488876</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1440131094831922</v>
+        <v>0.1013033213895482</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05815619227733748</v>
+        <v>0.04821718425545673</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3756947568.793836</v>
+        <v>4324120318.868455</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1441559325218974</v>
+        <v>0.1396102474167311</v>
       </c>
       <c r="G57" t="n">
-        <v>0.019585902491469</v>
+        <v>0.02491711360182707</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1333277693.696443</v>
+        <v>1425690511.825013</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1835918866858291</v>
+        <v>0.1646901846280525</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03079246200292901</v>
+        <v>0.03421669740563835</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5188762082.593267</v>
+        <v>4124071529.848915</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1089567637719214</v>
+        <v>0.09122143046211842</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04740375707361271</v>
+        <v>0.04785904390779334</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2329818729.822515</v>
+        <v>3231634127.672501</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2028971424990287</v>
+        <v>0.1430708656691328</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03253196340158897</v>
+        <v>0.03279265928026879</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2253541322.643595</v>
+        <v>3338888668.468689</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1722777404635995</v>
+        <v>0.1130237716685942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02517824775794116</v>
+        <v>0.02813246094094531</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1790604313.467448</v>
+        <v>1556751233.198241</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1363085535085737</v>
+        <v>0.1469581886574909</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03350975290172771</v>
+        <v>0.04286399618156229</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3603671695.406344</v>
+        <v>4345232923.67067</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08036154467256905</v>
+        <v>0.06777648128189137</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0462929584701598</v>
+        <v>0.04611691697484847</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3930649561.070674</v>
+        <v>3893281882.481974</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1537439802461538</v>
+        <v>0.1314030766479843</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02394433218107667</v>
+        <v>0.03290123196140868</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4143552791.016601</v>
+        <v>4237470322.85791</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1126824598932827</v>
+        <v>0.1580370713877825</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02268235743766196</v>
+        <v>0.02938669272755469</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5340993777.261375</v>
+        <v>4599950312.018209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1110642502244783</v>
+        <v>0.116432496904593</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04295585704896013</v>
+        <v>0.04428866642703418</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3397894401.182523</v>
+        <v>2528399671.942952</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09016465329342103</v>
+        <v>0.07762728169539942</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03770287196796972</v>
+        <v>0.05148969688741401</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5195597464.32802</v>
+        <v>5162332023.047405</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1550947705300552</v>
+        <v>0.1150491158635626</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05063667966241828</v>
+        <v>0.04122478721279439</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1952720981.4989</v>
+        <v>2294301615.951818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1115259331091059</v>
+        <v>0.1528448497464575</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04652846088845006</v>
+        <v>0.03630139692892962</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3468075460.485355</v>
+        <v>3684108191.697779</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08237854925772989</v>
+        <v>0.09468769336836728</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04649202622638771</v>
+        <v>0.0321111409684264</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4900682546.710003</v>
+        <v>4742941552.768701</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1422940660980387</v>
+        <v>0.1858433068152766</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02983914409651172</v>
+        <v>0.03040754603645968</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1995637858.202931</v>
+        <v>1837084474.825981</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06936159525288291</v>
+        <v>0.07301646917772885</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05243133924263001</v>
+        <v>0.04904665562671003</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3111403206.008027</v>
+        <v>2616981862.292118</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1041354717637425</v>
+        <v>0.07432758186714866</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04322000463370278</v>
+        <v>0.04292889694088457</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3420191017.984955</v>
+        <v>3448943410.441583</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1657409871345318</v>
+        <v>0.1787333116925367</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02429119358270162</v>
+        <v>0.0258077706518755</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1513845509.235394</v>
+        <v>1720472950.126827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1496519010078619</v>
+        <v>0.124956662072254</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03491322971009283</v>
+        <v>0.03270507199160688</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3892517774.209333</v>
+        <v>4415538391.841808</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08203889560047567</v>
+        <v>0.1153659108028678</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03241333659094527</v>
+        <v>0.02522693284141994</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1917785288.232755</v>
+        <v>2246981888.981018</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1311099292279525</v>
+        <v>0.1245368823811652</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03086569207440591</v>
+        <v>0.02001038222655406</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3754199378.954039</v>
+        <v>3466956833.84527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.109970288902634</v>
+        <v>0.1272816953749443</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04542835072860862</v>
+        <v>0.04199286281871308</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1494436315.274346</v>
+        <v>1649773550.496692</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1195227482658832</v>
+        <v>0.1188465107597508</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02509993267356117</v>
+        <v>0.03808356072590675</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5212632258.116467</v>
+        <v>3646310338.298467</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0757400028940285</v>
+        <v>0.08356970992933919</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0287111461206013</v>
+        <v>0.02560096871029322</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4934522792.885039</v>
+        <v>4526639779.266459</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09601221505985207</v>
+        <v>0.136336087182236</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02352367744234903</v>
+        <v>0.02850265457282495</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4434810558.270999</v>
+        <v>5560746784.620876</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1662865348385478</v>
+        <v>0.1596812766726842</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0213871193641315</v>
+        <v>0.02791269487003265</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2282557487.166252</v>
+        <v>1498165199.780338</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1275988790715299</v>
+        <v>0.1101394985391459</v>
       </c>
       <c r="G83" t="n">
-        <v>0.040042895245082</v>
+        <v>0.02768580824981389</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1878248301.216877</v>
+        <v>2138983949.321884</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08545866173658863</v>
+        <v>0.1051583698563934</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03248264033119282</v>
+        <v>0.03861244646628417</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2674220214.281065</v>
+        <v>3564574660.611825</v>
       </c>
       <c r="F85" t="n">
-        <v>0.154553375777349</v>
+        <v>0.161951935263151</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04047565348656491</v>
+        <v>0.05605618823108808</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2057454070.349906</v>
+        <v>2423685972.450922</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1100590239433463</v>
+        <v>0.1451471589788656</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01806570486871339</v>
+        <v>0.01932519716565336</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1129107167.135213</v>
+        <v>1010092621.738636</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1185605766041306</v>
+        <v>0.1281466071385952</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03576532734147345</v>
+        <v>0.02768382859178288</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3525800481.613909</v>
+        <v>3170834967.709477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1162528639153348</v>
+        <v>0.1748608953125686</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03077510723326255</v>
+        <v>0.03233475501337429</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2687135586.770473</v>
+        <v>3402044643.726151</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201987014244877</v>
+        <v>0.1106882574800868</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03137377549252665</v>
+        <v>0.03643383001502605</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1891392189.732359</v>
+        <v>1965919243.749089</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1346010829731631</v>
+        <v>0.1244867195985597</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04859957115161733</v>
+        <v>0.05514714482536605</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2016716551.046065</v>
+        <v>1571488520.259836</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1802809547297679</v>
+        <v>0.1539918872884494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05300837162824568</v>
+        <v>0.05923873156851606</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2686059935.738035</v>
+        <v>2460165898.656864</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08030326685593892</v>
+        <v>0.1084701553081974</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04369256429882082</v>
+        <v>0.04166716606540657</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4221478486.535797</v>
+        <v>5038243955.972307</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1191390757064083</v>
+        <v>0.09241046002740309</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03441324541369952</v>
+        <v>0.04437703389281586</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2144472320.38177</v>
+        <v>1532686727.703961</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12652398464679</v>
+        <v>0.1245653725238876</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0350571165625839</v>
+        <v>0.03826318168302772</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2649340339.705388</v>
+        <v>2989690220.2047</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1310954948727819</v>
+        <v>0.1124165221184828</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03275723070982611</v>
+        <v>0.03422064212116907</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1721771956.263684</v>
+        <v>2051777167.934162</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09567305490839974</v>
+        <v>0.1398246423111348</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04733290915539568</v>
+        <v>0.03318305217515712</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5224327293.111506</v>
+        <v>4136731839.839547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1067689139439088</v>
+        <v>0.1339000198118578</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02504181953753886</v>
+        <v>0.02602694073501192</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3008354892.373036</v>
+        <v>2543998232.722322</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0903656444953312</v>
+        <v>0.095371879501917</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02681254563601189</v>
+        <v>0.02809938668410866</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3121619703.318027</v>
+        <v>2840604746.428855</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1330742442458518</v>
+        <v>0.1088459425342668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02273037317873677</v>
+        <v>0.02258438731160496</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2921483124.935688</v>
+        <v>3135429641.762897</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1411542078096649</v>
+        <v>0.1418851921626396</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02775290720141076</v>
+        <v>0.02396972325767603</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2517562127.967049</v>
+        <v>2577010332.091533</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1880100200999542</v>
+        <v>0.1391375884912089</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04469102921727707</v>
+        <v>0.04140851381564591</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_101.xlsx
+++ b/output/fit_clients/fit_round_101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1604962429.549688</v>
+        <v>2196249879.478898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07550642965941166</v>
+        <v>0.1065974649766774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02926571032082486</v>
+        <v>0.03528547353064436</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2204062346.808362</v>
+        <v>2303569815.663765</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1341171882831237</v>
+        <v>0.1788581764830086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05048018577064982</v>
+        <v>0.04744473559979766</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4767067012.462132</v>
+        <v>3523861494.972323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1011105347063948</v>
+        <v>0.1629544870348956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0250167744757063</v>
+        <v>0.02732963748233919</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>118.6655693210627</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4061443146.390791</v>
+        <v>3726858831.450366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07358322947486833</v>
+        <v>0.1013034102080999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04138856304486356</v>
+        <v>0.04016217273019025</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
+        <v>148.3138600778646</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2476626977.10848</v>
+        <v>1885443414.825263</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1139936398980255</v>
+        <v>0.1366896909187345</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04252336326963106</v>
+        <v>0.05375474953166479</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1938205211.519069</v>
+        <v>2963032380.081707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09844447198118769</v>
+        <v>0.08337632011044728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03115501019272223</v>
+        <v>0.04766941243504885</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3392704426.875235</v>
+        <v>3646392816.898304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1895549397410446</v>
+        <v>0.2058763356945092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03323890261137848</v>
+        <v>0.02629440058802091</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>101</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1540088928.584842</v>
+        <v>1499116115.944666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1636393829226503</v>
+        <v>0.1724807636793265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02586410847287933</v>
+        <v>0.03174793767086539</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4414866457.820507</v>
+        <v>3855311761.704996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1486877205661521</v>
+        <v>0.2105834391348607</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05286882710864866</v>
+        <v>0.04053995270781809</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>94</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>157.2813327076944</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2816016671.050651</v>
+        <v>4110382632.720166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1669213489229715</v>
+        <v>0.1499094748490772</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03027662263609897</v>
+        <v>0.04715675067991627</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>101</v>
+      </c>
+      <c r="K11" t="n">
+        <v>177.3568589631043</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2634331099.143675</v>
+        <v>2738385594.961053</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954798351116976</v>
+        <v>0.1712900186471225</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05079787476610609</v>
+        <v>0.03336074570081078</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4929046972.678635</v>
+        <v>4765944586.959646</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07650770023207777</v>
+        <v>0.09583434370420085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0200276804453179</v>
+        <v>0.03022292858752272</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="n">
+        <v>101</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2583623350.664747</v>
+        <v>3668367579.965918</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1495906889669938</v>
+        <v>0.1212862156063601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04014507031599779</v>
+        <v>0.03444008214887703</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>101</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1357049518.190698</v>
+        <v>1804211453.827027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07201508422124592</v>
+        <v>0.07338565392566335</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04816816609632356</v>
+        <v>0.04802533715157697</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1789283398.155699</v>
+        <v>2810405743.403001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0715451761912818</v>
+        <v>0.09854858358700065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04875077638322682</v>
+        <v>0.03789846256175628</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4351193164.31081</v>
+        <v>4567604581.817198</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1442931865171542</v>
+        <v>0.1384516543891547</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04782406165918145</v>
+        <v>0.0424499010918732</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>49</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="n">
+        <v>144.7976230574864</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2863589828.829581</v>
+        <v>4017097927.976719</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1683175887240691</v>
+        <v>0.1739162659571827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02975926875371879</v>
+        <v>0.03233809834014747</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>101</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>888281061.4506578</v>
+        <v>1080547442.376931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1519067445790395</v>
+        <v>0.1690061731316409</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01972216233779888</v>
+        <v>0.02346919338072512</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2811855456.768292</v>
+        <v>1701652956.238565</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1456947853004504</v>
+        <v>0.1377073308042911</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02425271987258205</v>
+        <v>0.02733303060303163</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2213892375.405333</v>
+        <v>2579937384.542323</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0814080384927125</v>
+        <v>0.1014832395490124</v>
       </c>
       <c r="G21" t="n">
-        <v>0.032316613925945</v>
+        <v>0.03496785787283605</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3205071585.812903</v>
+        <v>3044862558.973607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.102153655833211</v>
+        <v>0.1033183176008688</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0457112183268858</v>
+        <v>0.05557791481953649</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>99</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>997405441.4928705</v>
+        <v>1374449395.440739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1639276958127812</v>
+        <v>0.1790066475176942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03466943744266472</v>
+        <v>0.04166808394076975</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3539321868.006508</v>
+        <v>3437323857.271254</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1041714936412686</v>
+        <v>0.1369420034265702</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03027155215563041</v>
+        <v>0.02460733808289201</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>101</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1472184216.35984</v>
+        <v>1484765635.046618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.111617263096685</v>
+        <v>0.1210042831064503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02330716818886356</v>
+        <v>0.02672373537058914</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1399478851.109034</v>
+        <v>1407692901.996261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09328016719672552</v>
+        <v>0.1237643595796474</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03719432101520081</v>
+        <v>0.03137237815574025</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3551903828.169898</v>
+        <v>4604986010.003684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1575416653935763</v>
+        <v>0.1388096659867737</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01907772204419274</v>
+        <v>0.0225102318880098</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>39</v>
+      </c>
+      <c r="J27" t="n">
+        <v>101</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2941298110.832587</v>
+        <v>2757414754.318934</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1477106910911032</v>
+        <v>0.1440532980628951</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03907435779741841</v>
+        <v>0.04096147408909281</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5277393398.082431</v>
+        <v>3751374461.871773</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1152076339234526</v>
+        <v>0.09961835732026382</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03105485049467881</v>
+        <v>0.04215760544053718</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>95</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>158.6284925077552</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1987361829.178694</v>
+        <v>2250425291.655511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.108441138773662</v>
+        <v>0.08742886832192565</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03355227659012802</v>
+        <v>0.03054536710145013</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1180437949.955043</v>
+        <v>1163748866.945209</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07747012453617459</v>
+        <v>0.08711349355062807</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04914954553443165</v>
+        <v>0.05187301741766138</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1446789875.839365</v>
+        <v>1830933769.201207</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003150840149042</v>
+        <v>0.08918834281679111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0314891560943802</v>
+        <v>0.03587797611163418</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2354721360.437604</v>
+        <v>2659496215.039927</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888022013646554</v>
+        <v>0.1699961351628873</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05574303980742241</v>
+        <v>0.04413494881815343</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1575048191.799239</v>
+        <v>1035452218.345202</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07387806670097043</v>
+        <v>0.1128966130277486</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02794194173954844</v>
+        <v>0.02187340994244499</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1255249466.962841</v>
+        <v>1000062349.527495</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09566364139831661</v>
+        <v>0.07211738670701241</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03434365095231121</v>
+        <v>0.03452524322419114</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3043479957.905481</v>
+        <v>2410464552.370377</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1804141486319631</v>
+        <v>0.1382597776608422</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02558524150374256</v>
+        <v>0.01942535342976719</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2380603786.68714</v>
+        <v>2171087482.516485</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07607681974231652</v>
+        <v>0.09316055600750651</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03546434446478626</v>
+        <v>0.03046347304191646</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1482420946.224427</v>
+        <v>2032838929.791364</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0957301550042962</v>
+        <v>0.106400401500904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03176394242202659</v>
+        <v>0.03889233188333629</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1825863098.727774</v>
+        <v>1494232223.096238</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1472850117807208</v>
+        <v>0.135811960372258</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02228486585960434</v>
+        <v>0.03048602970618628</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1783868046.899906</v>
+        <v>1392906386.023867</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1269380897804508</v>
+        <v>0.1056084064632765</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05158950588017044</v>
+        <v>0.05111346994448175</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2907876686.851078</v>
+        <v>2515424143.787516</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1511105798188195</v>
+        <v>0.1364236990819109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04328845765995901</v>
+        <v>0.04032193116673042</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3543199309.531487</v>
+        <v>3124786945.673565</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1054502332573215</v>
+        <v>0.08781006552107709</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03748269074835067</v>
+        <v>0.03629400626060116</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3022460920.718365</v>
+        <v>2803877540.087913</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1872895740575772</v>
+        <v>0.1410251226803965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02104312836333427</v>
+        <v>0.01989551148835333</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1967423045.901836</v>
+        <v>2204250248.108244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09807512639850756</v>
+        <v>0.07499273968177542</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02432679827698601</v>
+        <v>0.03121674091391542</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2543635168.337374</v>
+        <v>1659267853.225258</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1570821768455115</v>
+        <v>0.1613309910179631</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03948297189845684</v>
+        <v>0.04166831749411826</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5703516899.617663</v>
+        <v>5635164262.373193</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1699363631569276</v>
+        <v>0.1425086066034988</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04375851094790856</v>
+        <v>0.06131154216576981</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>58</v>
+      </c>
+      <c r="J46" t="n">
+        <v>100</v>
+      </c>
+      <c r="K46" t="n">
+        <v>164.0373152072629</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4851456838.907808</v>
+        <v>3429288880.752353</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1674386357774536</v>
+        <v>0.1323418178342989</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05698663596799629</v>
+        <v>0.05221975791293905</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>44</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+      <c r="K47" t="n">
+        <v>94.16896891514759</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3690502152.71432</v>
+        <v>3392824046.348128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07123284761818628</v>
+        <v>0.07727582701549709</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0298584449486861</v>
+        <v>0.03809186382396292</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1318658988.890757</v>
+        <v>1443117701.153357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1782984900357568</v>
+        <v>0.1336849806443819</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02733819003505615</v>
+        <v>0.04476479322368761</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3502627537.273071</v>
+        <v>3878110057.832156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1276127757698039</v>
+        <v>0.1402258524093168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04649372819915576</v>
+        <v>0.0521134209246624</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>35</v>
+      </c>
+      <c r="J50" t="n">
+        <v>101</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073034273.783632</v>
+        <v>1490963969.912768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1759019599961524</v>
+        <v>0.1300439018321948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03386304138962822</v>
+        <v>0.04916062546788341</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3449430084.016791</v>
+        <v>5072160808.006625</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1067607016128447</v>
+        <v>0.08989070066184907</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05055416393378331</v>
+        <v>0.05730979051766314</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>78</v>
+      </c>
+      <c r="J52" t="n">
+        <v>101</v>
+      </c>
+      <c r="K52" t="n">
+        <v>170.620897116469</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3381471302.475369</v>
+        <v>2584342220.067161</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1346002885958305</v>
+        <v>0.1958135633515885</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03040926015266902</v>
+        <v>0.03479122928076617</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3505109174.753421</v>
+        <v>3540495369.740779</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1275759183084682</v>
+        <v>0.150181891696544</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03266494858618443</v>
+        <v>0.03682807459147124</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>45</v>
+      </c>
+      <c r="J54" t="n">
+        <v>101</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3284312408.569174</v>
+        <v>3142525318.689251</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1372847454730073</v>
+        <v>0.2058802244784995</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01973887468428806</v>
+        <v>0.02546321885475379</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>46</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+      <c r="K55" t="n">
+        <v>85.57496376776844</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1637590629.488876</v>
+        <v>1313164924.54704</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1013033213895482</v>
+        <v>0.1189179779692257</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04821718425545673</v>
+        <v>0.05163826498205919</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4324120318.868455</v>
+        <v>4352354506.44924</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1396102474167311</v>
+        <v>0.1725347697185773</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02491711360182707</v>
+        <v>0.02756482800189869</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>38</v>
+      </c>
+      <c r="J57" t="n">
+        <v>101</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1425690511.825013</v>
+        <v>1478484485.157208</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1646901846280525</v>
+        <v>0.1894093421897742</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03421669740563835</v>
+        <v>0.02636986509362641</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4124071529.848915</v>
+        <v>3316095135.841017</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09122143046211842</v>
+        <v>0.09435769577858488</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04785904390779334</v>
+        <v>0.03593784609162268</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>49</v>
+      </c>
+      <c r="J59" t="n">
+        <v>99</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3231634127.672501</v>
+        <v>2693683030.808379</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1430708656691328</v>
+        <v>0.1995166095591398</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03279265928026879</v>
+        <v>0.03051474485657551</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3338888668.468689</v>
+        <v>3334131021.271705</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1130237716685942</v>
+        <v>0.1094395351641985</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02813246094094531</v>
+        <v>0.02779986343619721</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1556751233.198241</v>
+        <v>1967911620.234787</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1469581886574909</v>
+        <v>0.1415430239027591</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04286399618156229</v>
+        <v>0.04631300261871167</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4345232923.67067</v>
+        <v>5179079252.665669</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06777648128189137</v>
+        <v>0.103707075262676</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04611691697484847</v>
+        <v>0.03471346830946521</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+      <c r="K63" t="n">
+        <v>145.9816578060548</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3893281882.481974</v>
+        <v>4650306409.092402</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1314030766479843</v>
+        <v>0.1469435271148446</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03290123196140868</v>
+        <v>0.02984884244716777</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>155.340276416541</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4237470322.85791</v>
+        <v>5128343775.659137</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1580370713877825</v>
+        <v>0.1119674480754417</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02938669272755469</v>
+        <v>0.02749488198713476</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>82</v>
+      </c>
+      <c r="J65" t="n">
+        <v>101</v>
+      </c>
+      <c r="K65" t="n">
+        <v>167.383003367346</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4599950312.018209</v>
+        <v>4248551992.666314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.116432496904593</v>
+        <v>0.1162544226274864</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04428866642703418</v>
+        <v>0.03266549381127276</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>49</v>
+      </c>
+      <c r="J66" t="n">
+        <v>101</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2528399671.942952</v>
+        <v>2224342114.293561</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07762728169539942</v>
+        <v>0.06432611591364511</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05148969688741401</v>
+        <v>0.03767109547422996</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5162332023.047405</v>
+        <v>4558564538.644726</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150491158635626</v>
+        <v>0.1488576851605804</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04122478721279439</v>
+        <v>0.03842575258059003</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>50</v>
+      </c>
+      <c r="J68" t="n">
+        <v>101</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2294301615.951818</v>
+        <v>1829992783.437845</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1528448497464575</v>
+        <v>0.124819096665357</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03630139692892962</v>
+        <v>0.05974791489772433</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3684108191.697779</v>
+        <v>3369887169.712964</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09468769336836728</v>
+        <v>0.07107035436153535</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0321111409684264</v>
+        <v>0.04082752602652078</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4742941552.768701</v>
+        <v>5661490136.958777</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1858433068152766</v>
+        <v>0.1379432317559471</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03040754603645968</v>
+        <v>0.02302041438744815</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>82</v>
+      </c>
+      <c r="J71" t="n">
+        <v>101</v>
+      </c>
+      <c r="K71" t="n">
+        <v>167.7758387203341</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1837084474.825981</v>
+        <v>1659238313.560763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07301646917772885</v>
+        <v>0.06893646274283585</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04904665562671003</v>
+        <v>0.03555207397271014</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2616981862.292118</v>
+        <v>2678487895.896734</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07432758186714866</v>
+        <v>0.1118193054130315</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04292889694088457</v>
+        <v>0.04346617889751184</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3448943410.441583</v>
+        <v>3780531404.488532</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787333116925367</v>
+        <v>0.1801639698144649</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0258077706518755</v>
+        <v>0.03233600200626165</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100</v>
+      </c>
+      <c r="K74" t="n">
+        <v>136.8188222143576</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1720472950.126827</v>
+        <v>2137966062.339077</v>
       </c>
       <c r="F75" t="n">
-        <v>0.124956662072254</v>
+        <v>0.1547973962714915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03270507199160688</v>
+        <v>0.0345577458670432</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4415538391.841808</v>
+        <v>4525765039.190142</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1153659108028678</v>
+        <v>0.1235328868904217</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02522693284141994</v>
+        <v>0.0289940528137651</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>46</v>
+      </c>
+      <c r="J76" t="n">
+        <v>101</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2246981888.981018</v>
+        <v>2155809034.183681</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1245368823811652</v>
+        <v>0.1373384874106452</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02001038222655406</v>
+        <v>0.02261190416801958</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3466956833.84527</v>
+        <v>3140388031.516124</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1272816953749443</v>
+        <v>0.08877053754986262</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04199286281871308</v>
+        <v>0.0436483545412416</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>99</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1649773550.496692</v>
+        <v>1223789826.425505</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1188465107597508</v>
+        <v>0.1120091265488949</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03808356072590675</v>
+        <v>0.03928793355319466</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3646310338.298467</v>
+        <v>5376520515.801898</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08356970992933919</v>
+        <v>0.08508232083024188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02560096871029322</v>
+        <v>0.02853824043475279</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>48</v>
+      </c>
+      <c r="J80" t="n">
+        <v>101</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4526639779.266459</v>
+        <v>5126005497.049</v>
       </c>
       <c r="F81" t="n">
-        <v>0.136336087182236</v>
+        <v>0.09605300196003957</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02850265457282495</v>
+        <v>0.02921756417692008</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>46</v>
+      </c>
+      <c r="J81" t="n">
+        <v>100</v>
+      </c>
+      <c r="K81" t="n">
+        <v>136.8111941297084</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5560746784.620876</v>
+        <v>5117298206.382751</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1596812766726842</v>
+        <v>0.2090088072086161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02791269487003265</v>
+        <v>0.01780350073468968</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>66</v>
+      </c>
+      <c r="J82" t="n">
+        <v>101</v>
+      </c>
+      <c r="K82" t="n">
+        <v>171.0390586416854</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1498165199.780338</v>
+        <v>2352418967.061905</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1101394985391459</v>
+        <v>0.1071450712902032</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02768580824981389</v>
+        <v>0.03732322118236338</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2138983949.321884</v>
+        <v>1722839426.419146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051583698563934</v>
+        <v>0.07910252723214382</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03861244646628417</v>
+        <v>0.0512099700835122</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3564574660.611825</v>
+        <v>3401796329.831655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.161951935263151</v>
+        <v>0.1606914556351784</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05605618823108808</v>
+        <v>0.04833562102957193</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="n">
+        <v>119.5784477480444</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2423685972.450922</v>
+        <v>2787756112.504735</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1451471589788656</v>
+        <v>0.1078600130126219</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01932519716565336</v>
+        <v>0.02604852123650353</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1010092621.738636</v>
+        <v>1199671000.821271</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1281466071385952</v>
+        <v>0.1244072454165754</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02768382859178288</v>
+        <v>0.02887500593110415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3170834967.709477</v>
+        <v>2675460679.018838</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1748608953125686</v>
+        <v>0.1634628528572541</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03233475501337429</v>
+        <v>0.03679682600478555</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3402044643.726151</v>
+        <v>2824941550.517435</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1106882574800868</v>
+        <v>0.1314834336155778</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03643383001502605</v>
+        <v>0.03466316510079188</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1965919243.749089</v>
+        <v>1369162511.962066</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1244867195985597</v>
+        <v>0.1220891745117154</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05514714482536605</v>
+        <v>0.04061724873324057</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1571488520.259836</v>
+        <v>1290566264.631687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1539918872884494</v>
+        <v>0.1927342975374505</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05923873156851606</v>
+        <v>0.06181338824477647</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2460165898.656864</v>
+        <v>2948761892.071728</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1084701553081974</v>
+        <v>0.07859589994310354</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04166716606540657</v>
+        <v>0.0367906616727109</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5038243955.972307</v>
+        <v>4900292260.838588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09241046002740309</v>
+        <v>0.1396573902371342</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437703389281586</v>
+        <v>0.05030556744756639</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>46</v>
+      </c>
+      <c r="J93" t="n">
+        <v>100</v>
+      </c>
+      <c r="K93" t="n">
+        <v>149.9484695264564</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1532686727.703961</v>
+        <v>2011395151.592098</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1245653725238876</v>
+        <v>0.1427590294023983</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03826318168302772</v>
+        <v>0.03268313736473821</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2989690220.2047</v>
+        <v>2806218716.069891</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1124165221184828</v>
+        <v>0.09625232243519853</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03422064212116907</v>
+        <v>0.04381658327499664</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2051777167.934162</v>
+        <v>1697638869.192419</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1398246423111348</v>
+        <v>0.08926635588013165</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03318305217515712</v>
+        <v>0.0449087209462793</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4136731839.839547</v>
+        <v>3841071264.557055</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1339000198118578</v>
+        <v>0.12354915483311</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02602694073501192</v>
+        <v>0.02666865637776292</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>48</v>
+      </c>
+      <c r="J97" t="n">
+        <v>101</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2543998232.722322</v>
+        <v>3479424020.314126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.095371879501917</v>
+        <v>0.1247241437207905</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02809938668410866</v>
+        <v>0.02337880272851989</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>100</v>
+      </c>
+      <c r="K98" t="n">
+        <v>102.5468544673485</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2840604746.428855</v>
+        <v>2721843778.897531</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1088459425342668</v>
+        <v>0.1367200834465913</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02258438731160496</v>
+        <v>0.02355077253263237</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3135429641.762897</v>
+        <v>4166918495.705441</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1418851921626396</v>
+        <v>0.1247121289543111</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02396972325767603</v>
+        <v>0.02129601320476336</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>41</v>
+      </c>
+      <c r="J100" t="n">
+        <v>101</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2577010332.091533</v>
+        <v>3091676862.523061</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1391375884912089</v>
+        <v>0.2197098372027209</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04140851381564591</v>
+        <v>0.03986101365976553</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
